--- a/Clientes Tkinter/clientes.xlsx
+++ b/Clientes Tkinter/clientes.xlsx
@@ -469,22 +469,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t>gustavo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>cardoso</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7798670782</t>
+          <t>7799990000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>gustavo@emal.com</t>
+          <t>gustavo@email.com</t>
         </is>
       </c>
     </row>
@@ -497,22 +497,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Stefanny</t>
+          <t>rita</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>cardoso</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7788891646</t>
+          <t>7799998888</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>stef@emal.com</t>
+          <t>rita@email.com</t>
         </is>
       </c>
     </row>
